--- a/raw_data/20200818_saline/20200818_Sensor1_Test_79.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_79.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C1C6FD-C8D5-49EF-BA6C-5582613D876F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>70388.851144</v>
       </c>
       <c r="B2" s="1">
-        <v>19.552459</v>
+        <v>19.552458999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>901.744000</v>
+        <v>901.74400000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.515000</v>
+        <v>-194.51499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>70398.887652</v>
+        <v>70398.887652000005</v>
       </c>
       <c r="G2" s="1">
-        <v>19.555247</v>
+        <v>19.555247000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>919.232000</v>
+        <v>919.23199999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.204000</v>
+        <v>-165.20400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>70409.313100</v>
+        <v>70409.313099999999</v>
       </c>
       <c r="L2" s="1">
-        <v>19.558143</v>
+        <v>19.558143000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.051000</v>
+        <v>942.05100000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.384000</v>
+        <v>-118.384</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>70419.852057</v>
+        <v>70419.852056999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.561070</v>
+        <v>19.561070000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>948.945000</v>
+        <v>948.94500000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.614000</v>
+        <v>-102.614</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>70430.388604</v>
+        <v>70430.388604000007</v>
       </c>
       <c r="V2" s="1">
-        <v>19.563997</v>
+        <v>19.563997000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.893000</v>
+        <v>955.89300000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.189300</v>
+        <v>-88.189300000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>70440.466783</v>
+        <v>70440.466782999996</v>
       </c>
       <c r="AA2" s="1">
         <v>19.566796</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.346000</v>
+        <v>963.346</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.903700</v>
+        <v>-76.903700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>70451.060873</v>
+        <v>70451.060872999995</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.569739</v>
+        <v>19.569738999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.342000</v>
+        <v>968.34199999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.773500</v>
+        <v>-74.773499999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>70461.168100</v>
+        <v>70461.168099999995</v>
       </c>
       <c r="AK2" s="1">
         <v>19.572547</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.730000</v>
+        <v>975.73</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.418200</v>
+        <v>-79.418199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>70472.059460</v>
+        <v>70472.059460000004</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.575572</v>
+        <v>19.575572000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.898000</v>
+        <v>983.89800000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.896300</v>
+        <v>-90.896299999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>70483.002198</v>
+        <v>70483.002198000002</v>
       </c>
       <c r="AU2" s="1">
         <v>19.578612</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.740000</v>
+        <v>993.74</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.424000</v>
+        <v>-108.42400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>70494.156242</v>
+        <v>70494.156241999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.581710</v>
+        <v>19.581710000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.982000</v>
+        <v>-123.982</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>70505.162952</v>
+        <v>70505.162951999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.584767</v>
+        <v>19.584766999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.513000</v>
+        <v>-195.51300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>70516.591305</v>
+        <v>70516.591304999994</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.587942</v>
+        <v>19.587942000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.010000</v>
+        <v>1108.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.180000</v>
+        <v>-311.18</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>70528.084571</v>
+        <v>70528.084570999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.591135</v>
+        <v>19.591135000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-491.712000</v>
+        <v>-491.71199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>70538.421229</v>
@@ -691,303 +1107,303 @@
         <v>19.594006</v>
       </c>
       <c r="BU2" s="1">
-        <v>1339.580000</v>
+        <v>1339.58</v>
       </c>
       <c r="BV2" s="1">
-        <v>-687.951000</v>
+        <v>-687.95100000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>70549.692320</v>
+        <v>70549.692320000002</v>
       </c>
       <c r="BY2" s="1">
         <v>19.597137</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.860000</v>
+        <v>1474.86</v>
       </c>
       <c r="CA2" s="1">
-        <v>-896.719000</v>
+        <v>-896.71900000000005</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>70560.685616</v>
+        <v>70560.685616000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.600190</v>
+        <v>19.600190000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.590000</v>
+        <v>1826.59</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1390.180000</v>
+        <v>-1390.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>70389.272707</v>
+        <v>70389.272706999996</v>
       </c>
       <c r="B3" s="1">
-        <v>19.552576</v>
+        <v>19.552575999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>901.845000</v>
+        <v>901.84500000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.579000</v>
+        <v>-194.57900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>70399.303831</v>
+        <v>70399.303830999997</v>
       </c>
       <c r="G3" s="1">
-        <v>19.555362</v>
+        <v>19.555361999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>919.074000</v>
+        <v>919.07399999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.994000</v>
+        <v>-164.994</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>70409.726266</v>
+        <v>70409.726265999998</v>
       </c>
       <c r="L3" s="1">
-        <v>19.558257</v>
+        <v>19.558257000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.080000</v>
+        <v>942.08</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.272000</v>
+        <v>-118.27200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>70420.208211</v>
+        <v>70420.208211000005</v>
       </c>
       <c r="Q3" s="1">
         <v>19.561169</v>
       </c>
       <c r="R3" s="1">
-        <v>948.943000</v>
+        <v>948.94299999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.642000</v>
+        <v>-102.642</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>70430.758619</v>
       </c>
       <c r="V3" s="1">
-        <v>19.564100</v>
+        <v>19.5641</v>
       </c>
       <c r="W3" s="1">
-        <v>955.820000</v>
+        <v>955.82</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.133900</v>
+        <v>-88.133899999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>70440.852205</v>
+        <v>70440.852205000003</v>
       </c>
       <c r="AA3" s="1">
         <v>19.566903</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.394000</v>
+        <v>963.39400000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.880500</v>
+        <v>-76.880499999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>70451.440768</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.569845</v>
+        <v>19.569845000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.310000</v>
+        <v>968.31</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.787500</v>
+        <v>-74.787499999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>70461.893494</v>
+        <v>70461.893494000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.572748</v>
+        <v>19.572748000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.724000</v>
+        <v>975.72400000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.446000</v>
+        <v>-79.445999999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>70472.442868</v>
+        <v>70472.442867999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.575679</v>
+        <v>19.575679000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.876000</v>
+        <v>983.87599999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.873300</v>
+        <v>-90.8733</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>70483.395030</v>
+        <v>70483.39503</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.578721</v>
+        <v>19.578721000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.730000</v>
+        <v>993.73</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.448000</v>
+        <v>-108.44799999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>70494.568903</v>
+        <v>70494.568903000007</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.581825</v>
+        <v>19.581824999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.960000</v>
+        <v>-123.96</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>70505.528505</v>
+        <v>70505.528504999995</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.584869</v>
+        <v>19.584869000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.548000</v>
+        <v>-195.548</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>70517.308489</v>
+        <v>70517.308489000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>19.588141</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.000000</v>
+        <v>1108</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.169000</v>
+        <v>-311.16899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>70528.195673</v>
+        <v>70528.195672999995</v>
       </c>
       <c r="BO3" s="1">
         <v>19.591165</v>
       </c>
       <c r="BP3" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-491.700000</v>
+        <v>-491.7</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>70538.577727</v>
+        <v>70538.577726999996</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.594049</v>
+        <v>19.594048999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1339.480000</v>
+        <v>1339.48</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.982000</v>
+        <v>-687.98199999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>70550.178862</v>
+        <v>70550.178862000001</v>
       </c>
       <c r="BY3" s="1">
         <v>19.597272</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.950000</v>
+        <v>1474.95</v>
       </c>
       <c r="CA3" s="1">
-        <v>-896.657000</v>
+        <v>-896.65700000000004</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>70561.320990</v>
+        <v>70561.320989999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.600367</v>
+        <v>19.600366999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.530000</v>
+        <v>1826.53</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1390.480000</v>
+        <v>-1390.48</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>70389.554462</v>
       </c>
@@ -995,3262 +1411,3262 @@
         <v>19.552654</v>
       </c>
       <c r="C4" s="1">
-        <v>901.890000</v>
+        <v>901.89</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.632000</v>
+        <v>-194.63200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>70399.615293</v>
+        <v>70399.615292999995</v>
       </c>
       <c r="G4" s="1">
-        <v>19.555449</v>
+        <v>19.555448999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>919.153000</v>
+        <v>919.15300000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.477000</v>
+        <v>-165.477</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>70410.070950</v>
+        <v>70410.070949999994</v>
       </c>
       <c r="L4" s="1">
         <v>19.558353</v>
       </c>
       <c r="M4" s="1">
-        <v>942.103000</v>
+        <v>942.10299999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.212000</v>
+        <v>-118.212</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>70420.556377</v>
+        <v>70420.556377000001</v>
       </c>
       <c r="Q4" s="1">
         <v>19.561266</v>
       </c>
       <c r="R4" s="1">
-        <v>948.920000</v>
+        <v>948.92</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.687000</v>
+        <v>-102.687</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>70431.105823</v>
+        <v>70431.105823000005</v>
       </c>
       <c r="V4" s="1">
-        <v>19.564196</v>
+        <v>19.564195999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.895000</v>
+        <v>955.89499999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.223400</v>
+        <v>-88.223399999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>70441.550567</v>
+        <v>70441.550566999998</v>
       </c>
       <c r="AA4" s="1">
         <v>19.567097</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.394000</v>
+        <v>963.39400000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.944100</v>
+        <v>-76.944100000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>70452.125776</v>
+        <v>70452.125776000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.570035</v>
+        <v>19.570035000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.333000</v>
+        <v>968.33299999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.743800</v>
+        <v>-74.743799999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>70462.241681</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.572845</v>
+        <v>19.572845000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.739000</v>
+        <v>975.73900000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.449800</v>
+        <v>-79.449799999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>70472.814868</v>
+        <v>70472.814868000001</v>
       </c>
       <c r="AP4" s="1">
         <v>19.575782</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.886000</v>
+        <v>983.88599999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.899500</v>
+        <v>-90.899500000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>70483.761573</v>
+        <v>70483.761572999996</v>
       </c>
       <c r="AU4" s="1">
         <v>19.578823</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.728000</v>
+        <v>993.72799999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>70495.234533</v>
+        <v>70495.234532999995</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.582010</v>
+        <v>19.58201</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.968000</v>
+        <v>-123.968</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>70506.195127</v>
+        <v>70506.195126999999</v>
       </c>
       <c r="BE4" s="1">
         <v>19.585054</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.536000</v>
+        <v>-195.536</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>70517.782700</v>
+        <v>70517.782699999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.588273</v>
+        <v>19.588273000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.010000</v>
+        <v>1108.01</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.182000</v>
+        <v>-311.18200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>70528.621274</v>
+        <v>70528.621274000005</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.591284</v>
+        <v>19.591284000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1217.300000</v>
+        <v>1217.3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-491.737000</v>
+        <v>-491.73700000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>70538.992588</v>
+        <v>70538.992587999994</v>
       </c>
       <c r="BT4" s="1">
         <v>19.594165</v>
       </c>
       <c r="BU4" s="1">
-        <v>1339.460000</v>
+        <v>1339.46</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.944000</v>
+        <v>-687.94399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>70550.625757</v>
+        <v>70550.625757000002</v>
       </c>
       <c r="BY4" s="1">
         <v>19.597396</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA4" s="1">
-        <v>-896.630000</v>
+        <v>-896.63</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>70562.012941</v>
+        <v>70562.012940999994</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.600559</v>
+        <v>19.600559000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.690000</v>
+        <v>1826.69</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1389.180000</v>
+        <v>-1389.18</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>70389.894721</v>
+        <v>70389.894721000004</v>
       </c>
       <c r="B5" s="1">
-        <v>19.552749</v>
+        <v>19.552748999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>901.959000</v>
+        <v>901.95899999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.544000</v>
+        <v>-194.54400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>70399.957027</v>
+        <v>70399.957026999997</v>
       </c>
       <c r="G5" s="1">
-        <v>19.555544</v>
+        <v>19.555544000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.434000</v>
+        <v>919.43399999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.963000</v>
+        <v>-164.96299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>70410.415670</v>
+        <v>70410.415670000002</v>
       </c>
       <c r="L5" s="1">
         <v>19.558449</v>
       </c>
       <c r="M5" s="1">
-        <v>941.993000</v>
+        <v>941.99300000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.324000</v>
+        <v>-118.324</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>70421.252264</v>
+        <v>70421.252263999995</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.561459</v>
+        <v>19.561458999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.899000</v>
+        <v>948.899</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.684000</v>
+        <v>-102.684</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>70431.789769</v>
+        <v>70431.789768999995</v>
       </c>
       <c r="V5" s="1">
-        <v>19.564386</v>
+        <v>19.564385999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.799000</v>
+        <v>955.79899999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.204900</v>
+        <v>-88.204899999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>70441.899228</v>
+        <v>70441.899227999995</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.567194</v>
+        <v>19.567194000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.420000</v>
+        <v>963.42</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.996000</v>
+        <v>-76.995999999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>70452.470462</v>
+        <v>70452.470461999997</v>
       </c>
       <c r="AF5" s="1">
         <v>19.570131</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.337000</v>
+        <v>968.33699999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.745600</v>
+        <v>-74.745599999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>70462.591861</v>
+        <v>70462.591860999994</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.572942</v>
+        <v>19.572942000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.723000</v>
+        <v>975.72299999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.444500</v>
+        <v>-79.444500000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>70473.490456</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.575970</v>
+        <v>19.575970000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.896000</v>
+        <v>983.89599999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.900100</v>
+        <v>-90.900099999999995</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>70484.430181</v>
+        <v>70484.430181000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.579008</v>
+        <v>19.579008000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.744000</v>
+        <v>993.74400000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>70495.654149</v>
+        <v>70495.654148999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.582126</v>
+        <v>19.582125999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.970000</v>
+        <v>-123.97</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>70506.669302</v>
+        <v>70506.669301999995</v>
       </c>
       <c r="BE5" s="1">
         <v>19.585186</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.563000</v>
+        <v>-195.56299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>70518.158136</v>
+        <v>70518.158135999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.588377</v>
+        <v>19.588377000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.000000</v>
+        <v>1108</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.173000</v>
+        <v>-311.173</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>70529.019529</v>
+        <v>70529.019528999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.591394</v>
+        <v>19.591394000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-491.742000</v>
+        <v>-491.74200000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>70539.421131</v>
+        <v>70539.421130999996</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.594284</v>
+        <v>19.594283999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1339.330000</v>
+        <v>1339.33</v>
       </c>
       <c r="BV5" s="1">
-        <v>-688.018000</v>
+        <v>-688.01800000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>70551.080625</v>
+        <v>70551.080625000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.597522</v>
+        <v>19.597522000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.060000</v>
+        <v>1475.06</v>
       </c>
       <c r="CA5" s="1">
-        <v>-896.644000</v>
+        <v>-896.64400000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>70562.318941</v>
+        <v>70562.318941000005</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.600644</v>
+        <v>19.600643999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1825.460000</v>
+        <v>1825.46</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1389.640000</v>
+        <v>-1389.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>70390.236928</v>
+        <v>70390.236927999998</v>
       </c>
       <c r="B6" s="1">
         <v>19.552844</v>
       </c>
       <c r="C6" s="1">
-        <v>901.998000</v>
+        <v>901.99800000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.444000</v>
+        <v>-194.44399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>70400.645474</v>
+        <v>70400.645474000004</v>
       </c>
       <c r="G6" s="1">
-        <v>19.555735</v>
+        <v>19.555734999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.075000</v>
+        <v>919.07500000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.207000</v>
+        <v>-165.20699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>70411.109109</v>
+        <v>70411.109108999997</v>
       </c>
       <c r="L6" s="1">
-        <v>19.558641</v>
+        <v>19.558641000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.963000</v>
+        <v>941.96299999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.136000</v>
+        <v>-118.136</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>70421.599494</v>
+        <v>70421.599493999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.561555</v>
+        <v>19.561554999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>948.902000</v>
+        <v>948.90200000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.659000</v>
+        <v>-102.65900000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>70432.137466</v>
       </c>
       <c r="V6" s="1">
-        <v>19.564483</v>
+        <v>19.564482999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.782000</v>
+        <v>955.78200000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.262900</v>
+        <v>-88.262900000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>70442.248917</v>
+        <v>70442.248917000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.567291</v>
+        <v>19.567291000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.386000</v>
+        <v>963.38599999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.940200</v>
+        <v>-76.940200000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>70452.813197</v>
+        <v>70452.813196999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.570226</v>
+        <v>19.570226000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.325000</v>
+        <v>968.32500000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.767800</v>
+        <v>-74.767799999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>70463.251217</v>
+        <v>70463.251216999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.573125</v>
+        <v>19.573125000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.708000</v>
+        <v>975.70799999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.421300</v>
+        <v>-79.421300000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>70473.895195</v>
+        <v>70473.895195000005</v>
       </c>
       <c r="AP6" s="1">
         <v>19.576082</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.876000</v>
+        <v>983.87599999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.886000</v>
+        <v>-90.885999999999996</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>70484.888483</v>
+        <v>70484.888483000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.579136</v>
+        <v>19.579135999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.736000</v>
+        <v>993.73599999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.436000</v>
+        <v>-108.43600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>70496.030612</v>
+        <v>70496.030612000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>19.582231</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.979000</v>
+        <v>-123.979</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>70507.036344</v>
+        <v>70507.036343999993</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.585288</v>
+        <v>19.585287999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.551000</v>
+        <v>-195.55099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>70518.559431</v>
+        <v>70518.559431000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.588489</v>
+        <v>19.588488999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.159000</v>
+        <v>-311.15899999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>70529.440136</v>
+        <v>70529.440136000005</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.591511</v>
+        <v>19.591511000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1217.280000</v>
+        <v>1217.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-491.717000</v>
+        <v>-491.71699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>70539.849707</v>
+        <v>70539.849707000001</v>
       </c>
       <c r="BT6" s="1">
         <v>19.594403</v>
       </c>
       <c r="BU6" s="1">
-        <v>1339.290000</v>
+        <v>1339.29</v>
       </c>
       <c r="BV6" s="1">
-        <v>-688.042000</v>
+        <v>-688.04200000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>70551.529003</v>
+        <v>70551.529003000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.597647</v>
+        <v>19.597646999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.960000</v>
+        <v>1474.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-896.718000</v>
+        <v>-896.71799999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>70562.855649</v>
+        <v>70562.855649000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.600793</v>
+        <v>19.600792999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1826.580000</v>
+        <v>1826.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1390.360000</v>
+        <v>-1390.36</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>70390.921934</v>
+        <v>70390.921933999998</v>
       </c>
       <c r="B7" s="1">
         <v>19.553034</v>
       </c>
       <c r="C7" s="1">
-        <v>901.673000</v>
+        <v>901.673</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.560000</v>
+        <v>-194.56</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>70400.987714</v>
+        <v>70400.987714000003</v>
       </c>
       <c r="G7" s="1">
-        <v>19.555830</v>
+        <v>19.55583</v>
       </c>
       <c r="H7" s="1">
-        <v>919.137000</v>
+        <v>919.13699999999994</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.138000</v>
+        <v>-165.13800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>70411.452308</v>
+        <v>70411.452308000007</v>
       </c>
       <c r="L7" s="1">
-        <v>19.558737</v>
+        <v>19.558737000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>942.057000</v>
+        <v>942.05700000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.185000</v>
+        <v>-118.185</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>70421.952120</v>
+        <v>70421.952120000002</v>
       </c>
       <c r="Q7" s="1">
         <v>19.561653</v>
       </c>
       <c r="R7" s="1">
-        <v>948.909000</v>
+        <v>948.90899999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.661000</v>
+        <v>-102.661</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>70432.482216</v>
+        <v>70432.482216000004</v>
       </c>
       <c r="V7" s="1">
-        <v>19.564578</v>
+        <v>19.564578000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>955.806000</v>
+        <v>955.80600000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.223300</v>
+        <v>-88.223299999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>70442.907595</v>
+        <v>70442.907594999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.567474</v>
+        <v>19.567474000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.353000</v>
+        <v>963.35299999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.910200</v>
+        <v>-76.910200000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>70453.297790</v>
+        <v>70453.297789999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.570360</v>
+        <v>19.570360000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.313000</v>
+        <v>968.31299999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.801400</v>
+        <v>-74.801400000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>70463.633919</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.573232</v>
+        <v>19.573232000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.727000</v>
+        <v>975.72699999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.444500</v>
+        <v>-79.444500000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>70474.281537</v>
+        <v>70474.281537000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.576189</v>
+        <v>19.576188999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.887000</v>
+        <v>983.88699999999994</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.882300</v>
+        <v>-90.882300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>70485.253061</v>
+        <v>70485.253060999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.579237</v>
+        <v>19.579236999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.736000</v>
+        <v>993.73599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.431000</v>
+        <v>-108.431</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>70496.410053</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.582336</v>
+        <v>19.582336000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.960000</v>
+        <v>-123.96</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>70507.705445</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.585474</v>
+        <v>19.585474000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.573000</v>
+        <v>-195.57300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>70518.976534</v>
+        <v>70518.976534000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.588605</v>
+        <v>19.588605000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.000000</v>
+        <v>1108</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.193000</v>
+        <v>-311.19299999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>70529.839416</v>
+        <v>70529.839416000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.591622</v>
+        <v>19.591622000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-491.723000</v>
+        <v>-491.72300000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>70540.262842</v>
+        <v>70540.262841999996</v>
       </c>
       <c r="BT7" s="1">
         <v>19.594517</v>
       </c>
       <c r="BU7" s="1">
-        <v>1339.220000</v>
+        <v>1339.22</v>
       </c>
       <c r="BV7" s="1">
-        <v>-688.043000</v>
+        <v>-688.04300000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>70551.951564</v>
+        <v>70551.951564000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.597764</v>
+        <v>19.597764000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA7" s="1">
-        <v>-896.699000</v>
+        <v>-896.69899999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>70563.395757</v>
+        <v>70563.395757000006</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.600943</v>
+        <v>19.600943000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.260000</v>
+        <v>1826.26</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1388.840000</v>
+        <v>-1388.84</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>70391.264640</v>
+        <v>70391.264639999994</v>
       </c>
       <c r="B8" s="1">
-        <v>19.553129</v>
+        <v>19.553128999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>902.065000</v>
+        <v>902.06500000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.692000</v>
+        <v>-194.69200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>70401.335444</v>
+        <v>70401.335443999997</v>
       </c>
       <c r="G8" s="1">
-        <v>19.555927</v>
+        <v>19.555927000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>918.583000</v>
+        <v>918.58299999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.925000</v>
+        <v>-164.92500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>70411.800541</v>
+        <v>70411.800541000004</v>
       </c>
       <c r="L8" s="1">
         <v>19.558833</v>
       </c>
       <c r="M8" s="1">
-        <v>941.932000</v>
+        <v>941.93200000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.215000</v>
+        <v>-118.215</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>70422.603398</v>
+        <v>70422.603398000007</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.561834</v>
+        <v>19.561834000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.973000</v>
+        <v>948.97299999999996</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.678000</v>
+        <v>-102.678</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>70433.158728</v>
+        <v>70433.158727999995</v>
       </c>
       <c r="V8" s="1">
-        <v>19.564766</v>
+        <v>19.564765999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>955.822000</v>
+        <v>955.822</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.200300</v>
+        <v>-88.200299999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>70443.293482</v>
+        <v>70443.293481999994</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.567582</v>
+        <v>19.567582000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.389000</v>
+        <v>963.38900000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.917500</v>
+        <v>-76.917500000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>70453.501158</v>
+        <v>70453.501157999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.570417</v>
+        <v>19.570416999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.313000</v>
+        <v>968.31299999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.877100</v>
+        <v>-74.877099999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>70463.986080</v>
+        <v>70463.986080000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.573329</v>
+        <v>19.573329000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.708000</v>
+        <v>975.70799999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.426500</v>
+        <v>-79.426500000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>70474.631217</v>
+        <v>70474.631217000002</v>
       </c>
       <c r="AP8" s="1">
         <v>19.576286</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.885000</v>
+        <v>983.88499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.881600</v>
+        <v>-90.881600000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>70485.617602</v>
+        <v>70485.617601999998</v>
       </c>
       <c r="AU8" s="1">
         <v>19.579338</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.732000</v>
+        <v>993.73199999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.440000</v>
+        <v>-108.44</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>70496.844052</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.582457</v>
+        <v>19.582457000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.993000</v>
+        <v>-123.99299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>70508.085381</v>
+        <v>70508.085380999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.585579</v>
+        <v>19.585578999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.549000</v>
+        <v>-195.54900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>70519.312325</v>
+        <v>70519.312325000006</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.588698</v>
+        <v>19.588698000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1107.980000</v>
+        <v>1107.98</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.189000</v>
+        <v>-311.18900000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>70530.258039</v>
+        <v>70530.258038999993</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.591738</v>
+        <v>19.591737999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1217.300000</v>
+        <v>1217.3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-491.712000</v>
+        <v>-491.71199999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>70540.690921</v>
+        <v>70540.690921000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.594636</v>
+        <v>19.594636000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV8" s="1">
-        <v>-688.051000</v>
+        <v>-688.05100000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>70552.374650</v>
+        <v>70552.374649999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.597882</v>
+        <v>19.597881999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.080000</v>
+        <v>1475.08</v>
       </c>
       <c r="CA8" s="1">
-        <v>-896.643000</v>
+        <v>-896.64300000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>70563.934934</v>
+        <v>70563.934934000004</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.601093</v>
+        <v>19.601092999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1826.230000</v>
+        <v>1826.23</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1390.620000</v>
+        <v>-1390.62</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>70391.605887</v>
+        <v>70391.605886999998</v>
       </c>
       <c r="B9" s="1">
         <v>19.553224</v>
       </c>
       <c r="C9" s="1">
-        <v>901.913000</v>
+        <v>901.91300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.543000</v>
+        <v>-194.54300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>70401.991617</v>
+        <v>70401.991617000007</v>
       </c>
       <c r="G9" s="1">
-        <v>19.556109</v>
+        <v>19.556108999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>918.410000</v>
+        <v>918.41</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.015000</v>
+        <v>-165.01499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>70412.445332</v>
+        <v>70412.445332000003</v>
       </c>
       <c r="L9" s="1">
         <v>19.559013</v>
       </c>
       <c r="M9" s="1">
-        <v>941.918000</v>
+        <v>941.91800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.223000</v>
+        <v>-118.223</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>70422.993718</v>
+        <v>70422.993717999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.561943</v>
+        <v>19.561942999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.947000</v>
+        <v>948.947</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.696000</v>
+        <v>-102.696</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>70433.511880</v>
+        <v>70433.511880000005</v>
       </c>
       <c r="V9" s="1">
         <v>19.564864</v>
       </c>
       <c r="W9" s="1">
-        <v>955.812000</v>
+        <v>955.81200000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.238800</v>
+        <v>-88.238799999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>70443.643161</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.567679</v>
+        <v>19.567678999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.399000</v>
+        <v>963.399</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.962600</v>
+        <v>-76.962599999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>70453.842892</v>
+        <v>70453.842892000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.570512</v>
+        <v>19.570512000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.319000</v>
+        <v>968.31899999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.767700</v>
+        <v>-74.767700000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>70464.334766</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.573426</v>
+        <v>19.573426000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.704000</v>
+        <v>975.70399999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.452600</v>
+        <v>-79.452600000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>70475.053808</v>
+        <v>70475.053807999997</v>
       </c>
       <c r="AP9" s="1">
         <v>19.576404</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.872000</v>
+        <v>983.87199999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.861300</v>
+        <v>-90.8613</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>70486.050610</v>
+        <v>70486.050610000006</v>
       </c>
       <c r="AU9" s="1">
         <v>19.579459</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.751000</v>
+        <v>993.75099999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>70497.126312</v>
+        <v>70497.126311999993</v>
       </c>
       <c r="AZ9" s="1">
         <v>19.582535</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.966000</v>
+        <v>-123.96599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>70508.471806</v>
+        <v>70508.471806000001</v>
       </c>
       <c r="BE9" s="1">
         <v>19.585687</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.700000</v>
+        <v>1040.7</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.540000</v>
+        <v>-195.54</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>70519.687835</v>
+        <v>70519.687835000004</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.588802</v>
+        <v>19.588802000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.192000</v>
+        <v>-311.19200000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>70530.654344</v>
+        <v>70530.654343999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.591848</v>
+        <v>19.591847999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-491.758000</v>
+        <v>-491.75799999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>70541.116953</v>
+        <v>70541.116953000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.594755</v>
+        <v>19.594754999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1339.060000</v>
+        <v>1339.06</v>
       </c>
       <c r="BV9" s="1">
-        <v>-688.243000</v>
+        <v>-688.24300000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>70552.798234</v>
+        <v>70552.798234000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.598000</v>
+        <v>19.597999999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.970000</v>
+        <v>1474.97</v>
       </c>
       <c r="CA9" s="1">
-        <v>-896.677000</v>
+        <v>-896.67700000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>70564.475053</v>
+        <v>70564.475053000002</v>
       </c>
       <c r="CD9" s="1">
         <v>19.601243</v>
       </c>
       <c r="CE9" s="1">
-        <v>1826.880000</v>
+        <v>1826.88</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1389.290000</v>
+        <v>-1389.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>70392.262133</v>
+        <v>70392.262132999997</v>
       </c>
       <c r="B10" s="1">
-        <v>19.553406</v>
+        <v>19.553405999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>901.704000</v>
+        <v>901.70399999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.680000</v>
+        <v>-194.68</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>70402.366593</v>
+        <v>70402.366592999999</v>
       </c>
       <c r="G10" s="1">
         <v>19.556213</v>
       </c>
       <c r="H10" s="1">
-        <v>919.100000</v>
+        <v>919.1</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.130000</v>
+        <v>-165.13</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>70412.837179</v>
+        <v>70412.837178999995</v>
       </c>
       <c r="L10" s="1">
-        <v>19.559121</v>
+        <v>19.559121000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.107000</v>
+        <v>942.10699999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.174000</v>
+        <v>-118.17400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>70423.345876</v>
+        <v>70423.345876000007</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.562041</v>
+        <v>19.562041000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.918000</v>
+        <v>948.91800000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.699000</v>
+        <v>-102.699</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>70433.855607</v>
+        <v>70433.855607000005</v>
       </c>
       <c r="V10" s="1">
-        <v>19.564960</v>
+        <v>19.564959999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.898000</v>
+        <v>955.89800000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.144600</v>
+        <v>-88.144599999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>70443.990362</v>
+        <v>70443.990361999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.567775</v>
+        <v>19.567775000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.387000</v>
+        <v>963.38699999999994</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.906300</v>
+        <v>-76.906300000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>70454.268460</v>
+        <v>70454.268460000007</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.570630</v>
+        <v>19.570630000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.340000</v>
+        <v>968.34</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.742200</v>
+        <v>-74.742199999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>70464.751029</v>
+        <v>70464.751029000006</v>
       </c>
       <c r="AK10" s="1">
         <v>19.573542</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.727000</v>
+        <v>975.72699999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.444100</v>
+        <v>-79.444100000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>70475.360337</v>
+        <v>70475.360337000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.576489</v>
+        <v>19.576488999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.871000</v>
+        <v>983.87099999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.891400</v>
+        <v>-90.891400000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>70486.347217</v>
+        <v>70486.347217000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.579541</v>
+        <v>19.579540999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.729000</v>
+        <v>993.72900000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.417000</v>
+        <v>-108.417</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>70497.486898</v>
+        <v>70497.486898000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>19.582635</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.010000</v>
+        <v>1002.01</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.965000</v>
+        <v>-123.965</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>70508.855204</v>
+        <v>70508.855204000007</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.585793</v>
+        <v>19.585792999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.690000</v>
+        <v>1040.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.563000</v>
+        <v>-195.56299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>70520.063270</v>
+        <v>70520.063269999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.588906</v>
+        <v>19.588906000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1107.980000</v>
+        <v>1107.98</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.202000</v>
+        <v>-311.202</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>70531.077443</v>
+        <v>70531.077443000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.591966</v>
+        <v>19.591965999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1217.300000</v>
+        <v>1217.3</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-491.727000</v>
+        <v>-491.72699999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>70541.961143</v>
+        <v>70541.961142999993</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.594989</v>
+        <v>19.594989000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1339.070000</v>
+        <v>1339.07</v>
       </c>
       <c r="BV10" s="1">
-        <v>-688.335000</v>
+        <v>-688.33500000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>70553.212430</v>
+        <v>70553.21243</v>
       </c>
       <c r="BY10" s="1">
         <v>19.598115</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1474.970000</v>
+        <v>1474.97</v>
       </c>
       <c r="CA10" s="1">
-        <v>-896.667000</v>
+        <v>-896.66700000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>70565.015690</v>
+        <v>70565.01569</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.601393</v>
+        <v>19.601393000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1825.480000</v>
+        <v>1825.48</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1389.680000</v>
+        <v>-1389.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>70392.630125</v>
+        <v>70392.630124999996</v>
       </c>
       <c r="B11" s="1">
-        <v>19.553508</v>
+        <v>19.553508000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>901.984000</v>
+        <v>901.98400000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.659000</v>
+        <v>-194.65899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>70402.710815</v>
+        <v>70402.710814999999</v>
       </c>
       <c r="G11" s="1">
-        <v>19.556309</v>
+        <v>19.556308999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>918.885000</v>
+        <v>918.88499999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.594000</v>
+        <v>-165.59399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>70413.180371</v>
+        <v>70413.180370999995</v>
       </c>
       <c r="L11" s="1">
         <v>19.559217</v>
       </c>
       <c r="M11" s="1">
-        <v>942.069000</v>
+        <v>942.06899999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.249000</v>
+        <v>-118.249</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>70423.692100</v>
+        <v>70423.6921</v>
       </c>
       <c r="Q11" s="1">
         <v>19.562137</v>
       </c>
       <c r="R11" s="1">
-        <v>948.951000</v>
+        <v>948.95100000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.652000</v>
+        <v>-102.652</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>70434.202310</v>
+        <v>70434.202309999993</v>
       </c>
       <c r="V11" s="1">
-        <v>19.565056</v>
+        <v>19.565055999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>955.846000</v>
+        <v>955.846</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.182200</v>
+        <v>-88.182199999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>70444.403530</v>
+        <v>70444.403529999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.567890</v>
+        <v>19.567889999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.383000</v>
+        <v>963.38300000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.923500</v>
+        <v>-76.923500000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>70454.548204</v>
+        <v>70454.548204000006</v>
       </c>
       <c r="AF11" s="1">
         <v>19.570708</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.320000</v>
+        <v>968.32</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.773600</v>
+        <v>-74.773600000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>70465.032141</v>
+        <v>70465.032141000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.573620</v>
+        <v>19.573619999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.703000</v>
+        <v>975.70299999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.462500</v>
+        <v>-79.462500000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>70475.722911</v>
+        <v>70475.722911000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.576590</v>
+        <v>19.576589999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.868000</v>
+        <v>983.86800000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.873500</v>
+        <v>-90.873500000000007</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>70486.709794</v>
+        <v>70486.709793999995</v>
       </c>
       <c r="AU11" s="1">
         <v>19.579642</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.750000</v>
+        <v>993.75</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.426000</v>
+        <v>-108.426</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>70497.846962</v>
+        <v>70497.846961999996</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.582735</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.958000</v>
+        <v>-123.958</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>70509.576354</v>
+        <v>70509.576354000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.585993</v>
+        <v>19.585992999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.546000</v>
+        <v>-195.54599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>70520.835586</v>
+        <v>70520.835586000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.589121</v>
+        <v>19.589120999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1107.970000</v>
+        <v>1107.97</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.218000</v>
+        <v>-311.21800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>70531.472246</v>
+        <v>70531.472246000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.592076</v>
+        <v>19.592075999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1217.310000</v>
+        <v>1217.31</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-491.719000</v>
+        <v>-491.71899999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>70542.393657</v>
+        <v>70542.393656999993</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.595109</v>
+        <v>19.595109000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV11" s="1">
-        <v>-688.433000</v>
+        <v>-688.43299999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>70553.668744</v>
+        <v>70553.668743999995</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.598241</v>
+        <v>19.598241000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.980000</v>
+        <v>1474.98</v>
       </c>
       <c r="CA11" s="1">
-        <v>-896.658000</v>
+        <v>-896.65800000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>70565.865872</v>
+        <v>70565.865871999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.601629</v>
+        <v>19.601628999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.710000</v>
+        <v>1826.71</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1389.120000</v>
+        <v>-1389.12</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>70392.973364</v>
+        <v>70392.973364000005</v>
       </c>
       <c r="B12" s="1">
         <v>19.553604</v>
       </c>
       <c r="C12" s="1">
-        <v>902.003000</v>
+        <v>902.00300000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.635000</v>
+        <v>-194.63499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>70403.055568</v>
+        <v>70403.055567999996</v>
       </c>
       <c r="G12" s="1">
-        <v>19.556404</v>
+        <v>19.556404000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>919.134000</v>
+        <v>919.13400000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.222000</v>
+        <v>-165.22200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>70413.528067</v>
+        <v>70413.528067000007</v>
       </c>
       <c r="L12" s="1">
         <v>19.559313</v>
       </c>
       <c r="M12" s="1">
-        <v>941.974000</v>
+        <v>941.97400000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.246000</v>
+        <v>-118.246</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>70424.121620</v>
+        <v>70424.121620000005</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.562256</v>
+        <v>19.562256000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.898000</v>
+        <v>948.89800000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>70434.616966</v>
+        <v>70434.616966000001</v>
       </c>
       <c r="V12" s="1">
-        <v>19.565171</v>
+        <v>19.565170999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.839000</v>
+        <v>955.83900000000006</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.140100</v>
+        <v>-88.140100000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>70444.702850</v>
+        <v>70444.702850000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.567973</v>
+        <v>19.567972999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.423000</v>
+        <v>963.423</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.921900</v>
+        <v>-76.921899999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>70454.889946</v>
+        <v>70454.889945999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.570803</v>
+        <v>19.570803000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.308000</v>
+        <v>968.30799999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.747900</v>
+        <v>-74.747900000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>70465.377881</v>
+        <v>70465.377880999993</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.573716</v>
+        <v>19.573716000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.705000</v>
+        <v>975.70500000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.462700</v>
+        <v>-79.462699999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>70476.083387</v>
+        <v>70476.083387000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.576690</v>
+        <v>19.576689999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.873000</v>
+        <v>983.87300000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.901900</v>
+        <v>-90.901899999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>70487.076832</v>
+        <v>70487.076832000006</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.579744</v>
+        <v>19.579744000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.754000</v>
+        <v>993.75400000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.465000</v>
+        <v>-108.465</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>70498.560209</v>
+        <v>70498.560209000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.582933</v>
+        <v>19.582933000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.982000</v>
+        <v>-123.982</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>70509.937442</v>
+        <v>70509.937441999995</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.586094</v>
+        <v>19.586093999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.565000</v>
+        <v>-195.565</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>70521.209555</v>
+        <v>70521.209554999994</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.589225</v>
+        <v>19.589224999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.175000</v>
+        <v>-311.17500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>70531.892853</v>
+        <v>70531.892852999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.592192</v>
+        <v>19.592192000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1217.250000</v>
+        <v>1217.25</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-491.696000</v>
+        <v>-491.69600000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>70542.819720</v>
+        <v>70542.81972</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.595228</v>
+        <v>19.595227999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1339.240000</v>
+        <v>1339.24</v>
       </c>
       <c r="BV12" s="1">
-        <v>-688.418000</v>
+        <v>-688.41800000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>70554.427097</v>
+        <v>70554.427097000007</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.598452</v>
+        <v>19.598452000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.930000</v>
+        <v>1474.93</v>
       </c>
       <c r="CA12" s="1">
-        <v>-896.635000</v>
+        <v>-896.63499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>70566.093992</v>
+        <v>70566.093991999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.601693</v>
+        <v>19.601693000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1826.530000</v>
+        <v>1826.53</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1388.970000</v>
+        <v>-1388.97</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>70393.314635</v>
+        <v>70393.314635000002</v>
       </c>
       <c r="B13" s="1">
-        <v>19.553699</v>
+        <v>19.553699000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>901.943000</v>
+        <v>901.94299999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.577000</v>
+        <v>-194.577</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>70403.475188</v>
+        <v>70403.475187999997</v>
       </c>
       <c r="G13" s="1">
         <v>19.556521</v>
       </c>
       <c r="H13" s="1">
-        <v>918.884000</v>
+        <v>918.88400000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.121000</v>
+        <v>-165.12100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>70413.945212</v>
+        <v>70413.945212000006</v>
       </c>
       <c r="L13" s="1">
-        <v>19.559429</v>
+        <v>19.559429000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>941.991000</v>
+        <v>941.99099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.264000</v>
+        <v>-118.264</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>70424.390947</v>
+        <v>70424.390947000007</v>
       </c>
       <c r="Q13" s="1">
         <v>19.562331</v>
       </c>
       <c r="R13" s="1">
-        <v>948.949000</v>
+        <v>948.94899999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.620000</v>
+        <v>-102.62</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>70434.890263</v>
+        <v>70434.890262999994</v>
       </c>
       <c r="V13" s="1">
-        <v>19.565247</v>
+        <v>19.565246999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>955.800000</v>
+        <v>955.8</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.195300</v>
+        <v>-88.195300000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>70445.051316</v>
+        <v>70445.051315999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.568070</v>
+        <v>19.568069999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.350000</v>
+        <v>963.35</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.915700</v>
+        <v>-76.915700000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>70455.233178</v>
+        <v>70455.233177999995</v>
       </c>
       <c r="AF13" s="1">
         <v>19.570898</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.347000</v>
+        <v>968.34699999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.773300</v>
+        <v>-74.773300000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>70465.726541</v>
+        <v>70465.726540999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.573813</v>
+        <v>19.573813000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.754000</v>
+        <v>975.75400000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.441700</v>
+        <v>-79.441699999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>70476.801215</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.576889</v>
+        <v>19.576889000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.902000</v>
+        <v>983.90200000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.890500</v>
+        <v>-90.890500000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>70487.803473</v>
+        <v>70487.803473000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.579945</v>
+        <v>19.579944999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.750000</v>
+        <v>993.75</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>70498.908898</v>
+        <v>70498.908897999994</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.583030</v>
+        <v>19.583030000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.957000</v>
+        <v>-123.95699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>70510.300018</v>
+        <v>70510.300017999994</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.586194</v>
+        <v>19.586193999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.539000</v>
+        <v>-195.53899999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>70521.586020</v>
+        <v>70521.586020000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.589329</v>
+        <v>19.589328999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1107.980000</v>
+        <v>1107.98</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.208000</v>
+        <v>-311.20800000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>70532.587253</v>
+        <v>70532.587253000005</v>
       </c>
       <c r="BO13" s="1">
         <v>19.592385</v>
       </c>
       <c r="BP13" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-491.694000</v>
+        <v>-491.69400000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>70543.613317</v>
+        <v>70543.613316999996</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.595448</v>
+        <v>19.595448000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1339.300000</v>
+        <v>1339.3</v>
       </c>
       <c r="BV13" s="1">
-        <v>-688.613000</v>
+        <v>-688.61300000000006</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>70554.565480</v>
+        <v>70554.565480000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.598490</v>
+        <v>19.598490000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.950000</v>
+        <v>1474.95</v>
       </c>
       <c r="CA13" s="1">
-        <v>-896.831000</v>
+        <v>-896.83100000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>70566.614823</v>
+        <v>70566.614822999996</v>
       </c>
       <c r="CD13" s="1">
         <v>19.601837</v>
       </c>
       <c r="CE13" s="1">
-        <v>1825.620000</v>
+        <v>1825.62</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1389.750000</v>
+        <v>-1389.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>70393.742190</v>
+        <v>70393.742190000004</v>
       </c>
       <c r="B14" s="1">
-        <v>19.553817</v>
+        <v>19.553816999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>901.850000</v>
+        <v>901.85</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.566000</v>
+        <v>-194.566</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>70403.753408</v>
+        <v>70403.753408000004</v>
       </c>
       <c r="G14" s="1">
-        <v>19.556598</v>
+        <v>19.556598000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>919.009000</v>
+        <v>919.00900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.685000</v>
+        <v>-165.685</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>70414.221970</v>
+        <v>70414.221969999999</v>
       </c>
       <c r="L14" s="1">
-        <v>19.559506</v>
+        <v>19.559505999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>941.974000</v>
+        <v>941.97400000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.322000</v>
+        <v>-118.322</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>70424.741122</v>
+        <v>70424.741122000007</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.562428</v>
+        <v>19.562428000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>948.991000</v>
+        <v>948.99099999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.676000</v>
+        <v>-102.676</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>70435.233989</v>
       </c>
       <c r="V14" s="1">
-        <v>19.565343</v>
+        <v>19.565342999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>955.802000</v>
+        <v>955.80200000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.099200</v>
+        <v>-88.099199999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>70445.399001</v>
+        <v>70445.399000999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.568166</v>
+        <v>19.568166000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.399000</v>
+        <v>963.399</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.911600</v>
+        <v>-76.911600000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>70455.920137</v>
+        <v>70455.920136999994</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.571089</v>
+        <v>19.571089000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.359000</v>
+        <v>968.35900000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.789900</v>
+        <v>-74.789900000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>70466.426431</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.574007</v>
+        <v>19.574007000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.717000</v>
+        <v>975.71699999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.445500</v>
+        <v>-79.445499999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>70477.163293</v>
+        <v>70477.163293000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.576990</v>
+        <v>19.576989999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.898000</v>
+        <v>983.89800000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.886700</v>
+        <v>-90.886700000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>70488.194319</v>
+        <v>70488.194319000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.580054</v>
+        <v>19.580054000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.738000</v>
+        <v>993.73800000000006</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.444000</v>
+        <v>-108.444</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>70499.280402</v>
+        <v>70499.280402000004</v>
       </c>
       <c r="AZ14" s="1">
         <v>19.583133</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.971000</v>
+        <v>-123.971</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>70510.971106</v>
+        <v>70510.971105999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.586381</v>
+        <v>19.586380999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.552000</v>
+        <v>-195.55199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>70522.301715</v>
+        <v>70522.301714999994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.589528</v>
+        <v>19.589528000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.000000</v>
+        <v>1108</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.195000</v>
+        <v>-311.19499999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>70532.728452</v>
+        <v>70532.728451999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.592425</v>
+        <v>19.592424999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1217.310000</v>
+        <v>1217.31</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-491.735000</v>
+        <v>-491.73500000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>70544.094137</v>
+        <v>70544.094136999993</v>
       </c>
       <c r="BT14" s="1">
         <v>19.595582</v>
       </c>
       <c r="BU14" s="1">
-        <v>1339.390000</v>
+        <v>1339.39</v>
       </c>
       <c r="BV14" s="1">
-        <v>-688.594000</v>
+        <v>-688.59400000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>70554.987080</v>
+        <v>70554.987080000006</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.598608</v>
+        <v>19.598607999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.950000</v>
+        <v>1474.95</v>
       </c>
       <c r="CA14" s="1">
-        <v>-896.681000</v>
+        <v>-896.68100000000004</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>70567.131127</v>
+        <v>70567.131127000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.601981</v>
+        <v>19.601980999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.490000</v>
+        <v>1825.49</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1389.430000</v>
+        <v>-1389.43</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>70394.015452</v>
+        <v>70394.015452000007</v>
       </c>
       <c r="B15" s="1">
-        <v>19.553893</v>
+        <v>19.553892999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>901.934000</v>
+        <v>901.93399999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.505000</v>
+        <v>-194.505</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>70404.096639</v>
+        <v>70404.096638999996</v>
       </c>
       <c r="G15" s="1">
         <v>19.556694</v>
       </c>
       <c r="H15" s="1">
-        <v>919.033000</v>
+        <v>919.03300000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.996000</v>
+        <v>-164.99600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>70414.565201</v>
+        <v>70414.565201000005</v>
       </c>
       <c r="L15" s="1">
-        <v>19.559601</v>
+        <v>19.559601000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.994000</v>
+        <v>941.99400000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.212000</v>
+        <v>-118.212</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>70425.091794</v>
+        <v>70425.091794000007</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.562525</v>
+        <v>19.562525000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.959000</v>
+        <v>948.95899999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.685000</v>
+        <v>-102.685</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>70435.727014</v>
+        <v>70435.727014000004</v>
       </c>
       <c r="V15" s="1">
-        <v>19.565480</v>
+        <v>19.565480000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>955.870000</v>
+        <v>955.87</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.167800</v>
+        <v>-88.1678</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>70446.096902</v>
+        <v>70446.096902000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.568360</v>
+        <v>19.568359999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.354000</v>
+        <v>963.35400000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.912400</v>
+        <v>-76.912400000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>70456.264889</v>
+        <v>70456.264888999998</v>
       </c>
       <c r="AF15" s="1">
         <v>19.571185</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.311000</v>
+        <v>968.31100000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.748800</v>
+        <v>-74.748800000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>70466.773635</v>
+        <v>70466.773635000005</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.574104</v>
+        <v>19.574103999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.730000</v>
+        <v>975.73</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.423000</v>
+        <v>-79.423000000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>70477.523389</v>
+        <v>70477.523388999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.577090</v>
+        <v>19.577089999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.891000</v>
+        <v>983.89099999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.895400</v>
+        <v>-90.895399999999995</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>70488.559408</v>
+        <v>70488.559408000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.580155</v>
+        <v>19.580155000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.754000</v>
+        <v>993.75400000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>70499.958929</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.583322</v>
+        <v>19.583321999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.974000</v>
+        <v>-123.974</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>70511.407089</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.586502</v>
+        <v>19.586501999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.546000</v>
+        <v>-195.54599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>70522.728273</v>
+        <v>70522.728273000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.589647</v>
+        <v>19.589646999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1107.980000</v>
+        <v>1107.98</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.191000</v>
+        <v>-311.19099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>70533.132851</v>
+        <v>70533.132851000002</v>
       </c>
       <c r="BO15" s="1">
         <v>19.592537</v>
       </c>
       <c r="BP15" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-491.759000</v>
+        <v>-491.75900000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>70544.521524</v>
+        <v>70544.521523999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.595700</v>
+        <v>19.595700000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.410000</v>
+        <v>1339.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-688.650000</v>
+        <v>-688.65</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>70555.414661</v>
+        <v>70555.414661000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.598726</v>
+        <v>19.598725999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.000000</v>
+        <v>1475</v>
       </c>
       <c r="CA15" s="1">
-        <v>-896.691000</v>
+        <v>-896.69100000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>70567.680695</v>
+        <v>70567.680695000003</v>
       </c>
       <c r="CD15" s="1">
         <v>19.602134</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.350000</v>
+        <v>1826.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1389.040000</v>
+        <v>-1389.04</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>70394.355743</v>
+        <v>70394.355742999993</v>
       </c>
       <c r="B16" s="1">
         <v>19.553988</v>
       </c>
       <c r="C16" s="1">
-        <v>902.079000</v>
+        <v>902.07899999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.556000</v>
+        <v>-194.55600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>70404.441855</v>
+        <v>70404.441854999997</v>
       </c>
       <c r="G16" s="1">
-        <v>19.556789</v>
+        <v>19.556788999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>918.759000</v>
+        <v>918.75900000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.397000</v>
+        <v>-165.39699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>70414.912897</v>
+        <v>70414.912897000002</v>
       </c>
       <c r="L16" s="1">
-        <v>19.559698</v>
+        <v>19.559698000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>942.065000</v>
+        <v>942.06500000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.221000</v>
+        <v>-118.221</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>70425.787841</v>
+        <v>70425.787840999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.562719</v>
+        <v>19.562719000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.938000</v>
+        <v>948.93799999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>70435.921940</v>
+        <v>70435.92194</v>
       </c>
       <c r="V16" s="1">
         <v>19.565534</v>
       </c>
       <c r="W16" s="1">
-        <v>955.842000</v>
+        <v>955.84199999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.134800</v>
+        <v>-88.134799999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>70446.444595</v>
+        <v>70446.444594999994</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.568457</v>
+        <v>19.568456999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.444000</v>
+        <v>963.44399999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.959100</v>
+        <v>-76.959100000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>70456.606601</v>
+        <v>70456.606601000007</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.571280</v>
+        <v>19.571280000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.362000</v>
+        <v>968.36199999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.630600</v>
+        <v>-74.630600000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>70467.122315</v>
+        <v>70467.122315000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.574201</v>
+        <v>19.574200999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.736000</v>
+        <v>975.73599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.452300</v>
+        <v>-79.452299999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>70478.194972</v>
+        <v>70478.194971999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.577276</v>
+        <v>19.577276000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.891000</v>
+        <v>983.89099999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.892400</v>
+        <v>-90.892399999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>70489.352477</v>
+        <v>70489.352476999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.580376</v>
+        <v>19.580376000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.738000</v>
+        <v>993.73800000000006</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.413000</v>
+        <v>-108.413</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>70500.351759</v>
+        <v>70500.351758999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.583431</v>
+        <v>19.583431000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.973000</v>
+        <v>-123.973</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>70511.768177</v>
+        <v>70511.768177000005</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.586602</v>
+        <v>19.586601999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.556000</v>
+        <v>-195.55600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>70523.141441</v>
@@ -4259,1178 +4675,1178 @@
         <v>19.589762</v>
       </c>
       <c r="BK16" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.173000</v>
+        <v>-311.173</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>70533.533123</v>
+        <v>70533.533123000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.592648</v>
+        <v>19.592648000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1217.280000</v>
+        <v>1217.28</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-491.721000</v>
+        <v>-491.721</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>70544.936147</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.595816</v>
+        <v>19.595815999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.560000</v>
+        <v>1339.56</v>
       </c>
       <c r="BV16" s="1">
-        <v>-688.581000</v>
+        <v>-688.58100000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>70555.834245</v>
+        <v>70555.834245000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.598843</v>
+        <v>19.598842999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA16" s="1">
-        <v>-896.700000</v>
+        <v>-896.7</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>70568.210917</v>
+        <v>70568.210917000004</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.602281</v>
+        <v>19.602281000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1825.530000</v>
+        <v>1825.53</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1389.850000</v>
+        <v>-1389.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>70394.695994</v>
+        <v>70394.695993999994</v>
       </c>
       <c r="B17" s="1">
-        <v>19.554082</v>
+        <v>19.554082000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>901.904000</v>
+        <v>901.904</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.640000</v>
+        <v>-194.64</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>70405.129342</v>
       </c>
       <c r="G17" s="1">
-        <v>19.556980</v>
+        <v>19.556979999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.176000</v>
+        <v>919.17600000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.418000</v>
+        <v>-165.41800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>70415.607823</v>
+        <v>70415.607822999998</v>
       </c>
       <c r="L17" s="1">
         <v>19.559891</v>
       </c>
       <c r="M17" s="1">
-        <v>942.050000</v>
+        <v>942.05</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.155000</v>
+        <v>-118.155</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>70426.133394</v>
+        <v>70426.133394000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.562815</v>
+        <v>19.562815000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>948.924000</v>
+        <v>948.92399999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.660000</v>
+        <v>-102.66</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>70436.264181</v>
+        <v>70436.264181000006</v>
       </c>
       <c r="V17" s="1">
-        <v>19.565629</v>
+        <v>19.565629000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>955.800000</v>
+        <v>955.8</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.233900</v>
+        <v>-88.233900000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>70446.794751</v>
+        <v>70446.794750999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.568554</v>
+        <v>19.568553999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.362000</v>
+        <v>963.36199999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.904900</v>
+        <v>-76.904899999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>70457.265785</v>
+        <v>70457.265784999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.571463</v>
+        <v>19.571463000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.328000</v>
+        <v>968.32799999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.736300</v>
+        <v>-74.7363</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>70467.778490</v>
+        <v>70467.778489999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.574383</v>
+        <v>19.574383000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.724000</v>
+        <v>975.72400000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.454200</v>
+        <v>-79.4542</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>70478.632445</v>
+        <v>70478.632444999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.577398</v>
+        <v>19.577397999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.886000</v>
+        <v>983.88599999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.883800</v>
+        <v>-90.883799999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>70489.711117</v>
+        <v>70489.711116999999</v>
       </c>
       <c r="AU17" s="1">
         <v>19.580475</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.750000</v>
+        <v>993.75</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.429000</v>
+        <v>-108.429</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>70500.740655</v>
+        <v>70500.740655000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.583539</v>
+        <v>19.583538999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.954000</v>
+        <v>-123.95399999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>70512.128307</v>
+        <v>70512.128307000006</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.586702</v>
+        <v>19.586701999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.730000</v>
+        <v>1040.73</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.572000</v>
+        <v>-195.572</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>70523.517408</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.589866</v>
+        <v>19.589866000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.010000</v>
+        <v>1108.01</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.182000</v>
+        <v>-311.18200000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>70533.953235</v>
+        <v>70533.953234999994</v>
       </c>
       <c r="BO17" s="1">
         <v>19.592765</v>
       </c>
       <c r="BP17" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-491.753000</v>
+        <v>-491.75299999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>70545.366675</v>
+        <v>70545.366674999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.595935</v>
+        <v>19.595935000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.610000</v>
+        <v>1339.61</v>
       </c>
       <c r="BV17" s="1">
-        <v>-688.557000</v>
+        <v>-688.55700000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>70556.280150</v>
+        <v>70556.280150000006</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.598967</v>
+        <v>19.598966999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.990000</v>
+        <v>1474.99</v>
       </c>
       <c r="CA17" s="1">
-        <v>-896.765000</v>
+        <v>-896.76499999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>70568.727748</v>
+        <v>70568.727748000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.602424</v>
+        <v>19.602423999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.430000</v>
+        <v>1826.43</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1390.510000</v>
+        <v>-1390.51</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>70395.379945</v>
+        <v>70395.379944999993</v>
       </c>
       <c r="B18" s="1">
-        <v>19.554272</v>
+        <v>19.554272000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>901.842000</v>
+        <v>901.84199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.601000</v>
+        <v>-194.601</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>70405.476012</v>
+        <v>70405.476011999999</v>
       </c>
       <c r="G18" s="1">
         <v>19.557077</v>
       </c>
       <c r="H18" s="1">
-        <v>919.450000</v>
+        <v>919.45</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.600000</v>
+        <v>-164.6</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>70415.957505</v>
+        <v>70415.957504999998</v>
       </c>
       <c r="L18" s="1">
-        <v>19.559988</v>
+        <v>19.559988000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.045000</v>
+        <v>942.04499999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.294000</v>
+        <v>-118.294</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>70426.483570</v>
+        <v>70426.483569999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.562912</v>
+        <v>19.562912000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.921000</v>
+        <v>948.92100000000005</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.631000</v>
+        <v>-102.631</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>70436.918404</v>
+        <v>70436.918403999996</v>
       </c>
       <c r="V18" s="1">
         <v>19.565811</v>
       </c>
       <c r="W18" s="1">
-        <v>955.890000</v>
+        <v>955.89</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.171000</v>
+        <v>-88.171000000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>70447.460373</v>
+        <v>70447.460372999994</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.568739</v>
+        <v>19.568739000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.386000</v>
+        <v>963.38599999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.940400</v>
+        <v>-76.940399999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>70457.638280</v>
+        <v>70457.638279999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.571566</v>
+        <v>19.571566000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.279000</v>
+        <v>968.279</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.733900</v>
+        <v>-74.733900000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>70468.169369</v>
+        <v>70468.169368999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.574491</v>
+        <v>19.574490999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.726000</v>
+        <v>975.726</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.437900</v>
+        <v>-79.437899999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>70478.992538</v>
+        <v>70478.992538000006</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.577498</v>
+        <v>19.577497999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.866000</v>
+        <v>983.86599999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.873100</v>
+        <v>-90.873099999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>70490.045388</v>
+        <v>70490.045387999999</v>
       </c>
       <c r="AU18" s="1">
         <v>19.580568</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.753000</v>
+        <v>993.75300000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>70501.100261</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.583639</v>
+        <v>19.583639000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.971000</v>
+        <v>-123.971</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>70512.551360</v>
+        <v>70512.551359999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.586820</v>
+        <v>19.586819999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.700000</v>
+        <v>1040.7</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.576000</v>
+        <v>-195.57599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>70523.955873</v>
+        <v>70523.955872999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.589988</v>
+        <v>19.589988000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.010000</v>
+        <v>1108.01</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.165000</v>
+        <v>-311.16500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>70534.350034</v>
+        <v>70534.350034000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.592875</v>
+        <v>19.592874999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-491.684000</v>
+        <v>-491.68400000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>70545.793236</v>
+        <v>70545.793235999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.596054</v>
+        <v>19.596053999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.660000</v>
+        <v>1339.66</v>
       </c>
       <c r="BV18" s="1">
-        <v>-688.410000</v>
+        <v>-688.41</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>70556.700792</v>
+        <v>70556.700792000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.599084</v>
+        <v>19.599084000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.030000</v>
+        <v>1475.03</v>
       </c>
       <c r="CA18" s="1">
-        <v>-896.778000</v>
+        <v>-896.77800000000002</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>70569.248580</v>
+        <v>70569.248579999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.602569</v>
+        <v>19.602568999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.050000</v>
+        <v>1827.05</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1389.290000</v>
+        <v>-1389.29</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>70395.724665</v>
+        <v>70395.724665000002</v>
       </c>
       <c r="B19" s="1">
         <v>19.554368</v>
       </c>
       <c r="C19" s="1">
-        <v>901.982000</v>
+        <v>901.98199999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.657000</v>
+        <v>-194.65700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>70405.819771</v>
+        <v>70405.819770999995</v>
       </c>
       <c r="G19" s="1">
-        <v>19.557172</v>
+        <v>19.557172000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>918.947000</v>
+        <v>918.947</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.884000</v>
+        <v>-164.88399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>70416.300206</v>
       </c>
       <c r="L19" s="1">
-        <v>19.560083</v>
+        <v>19.560082999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.029000</v>
+        <v>942.029</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.148000</v>
+        <v>-118.148</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>70427.141264</v>
+        <v>70427.141264000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.563095</v>
+        <v>19.563095000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.965000</v>
+        <v>948.96500000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.656000</v>
+        <v>-102.65600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>70437.294371</v>
+        <v>70437.294370999996</v>
       </c>
       <c r="V19" s="1">
         <v>19.565915</v>
       </c>
       <c r="W19" s="1">
-        <v>955.758000</v>
+        <v>955.75800000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.134600</v>
+        <v>-88.134600000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>70447.841796</v>
+        <v>70447.841795999993</v>
       </c>
       <c r="AA19" s="1">
         <v>19.568845</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.374000</v>
+        <v>963.37400000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.885000</v>
+        <v>-76.885000000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>70457.982039</v>
+        <v>70457.982038999995</v>
       </c>
       <c r="AF19" s="1">
         <v>19.571662</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.346000</v>
+        <v>968.346</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.821300</v>
+        <v>-74.821299999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>70468.517567</v>
+        <v>70468.517567000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.574588</v>
+        <v>19.574587999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.724000</v>
+        <v>975.72400000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.440500</v>
+        <v>-79.4405</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>70479.351643</v>
+        <v>70479.351643000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.577598</v>
+        <v>19.577597999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.883000</v>
+        <v>983.88300000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.874200</v>
+        <v>-90.874200000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>70490.472478</v>
+        <v>70490.472477999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.580687</v>
+        <v>19.580687000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.725000</v>
+        <v>993.72500000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.414000</v>
+        <v>-108.414</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>70501.516861</v>
+        <v>70501.516860999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>19.583755</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.961000</v>
+        <v>-123.961</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>70512.850446</v>
+        <v>70512.850445999997</v>
       </c>
       <c r="BE19" s="1">
         <v>19.586903</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.551000</v>
+        <v>-195.55099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>70524.289680</v>
+        <v>70524.289680000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.590080</v>
+        <v>19.59008</v>
       </c>
       <c r="BK19" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.186000</v>
+        <v>-311.18599999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>70534.768690</v>
+        <v>70534.768689999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.592991</v>
+        <v>19.592991000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1217.310000</v>
+        <v>1217.31</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-491.723000</v>
+        <v>-491.72300000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>70546.207394</v>
+        <v>70546.207393999997</v>
       </c>
       <c r="BT19" s="1">
         <v>19.596169</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.710000</v>
+        <v>1339.71</v>
       </c>
       <c r="BV19" s="1">
-        <v>-688.386000</v>
+        <v>-688.38599999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>70557.124837</v>
+        <v>70557.124836999996</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.599201</v>
+        <v>19.599201000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1475.030000</v>
+        <v>1475.03</v>
       </c>
       <c r="CA19" s="1">
-        <v>-896.697000</v>
+        <v>-896.697</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>70569.764917</v>
+        <v>70569.764916999993</v>
       </c>
       <c r="CD19" s="1">
         <v>19.602712</v>
       </c>
       <c r="CE19" s="1">
-        <v>1827.330000</v>
+        <v>1827.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1389.740000</v>
+        <v>-1389.74</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>70396.066410</v>
+        <v>70396.066409999999</v>
       </c>
       <c r="B20" s="1">
-        <v>19.554463</v>
+        <v>19.554462999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>901.855000</v>
+        <v>901.85500000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.722000</v>
+        <v>-194.72200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>70406.462088</v>
       </c>
       <c r="G20" s="1">
-        <v>19.557351</v>
+        <v>19.557351000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>918.968000</v>
+        <v>918.96799999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.695000</v>
+        <v>-164.69499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>70416.950958</v>
+        <v>70416.950958000001</v>
       </c>
       <c r="L20" s="1">
         <v>19.560264</v>
       </c>
       <c r="M20" s="1">
-        <v>942.093000</v>
+        <v>942.09299999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.154000</v>
+        <v>-118.154</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>70427.530623</v>
+        <v>70427.530622999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.563203</v>
+        <v>19.563203000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>948.977000</v>
+        <v>948.97699999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.679000</v>
+        <v>-102.679</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>70437.638594</v>
+        <v>70437.638594000004</v>
       </c>
       <c r="V20" s="1">
         <v>19.566011</v>
       </c>
       <c r="W20" s="1">
-        <v>955.966000</v>
+        <v>955.96600000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.140900</v>
+        <v>-88.140900000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>70448.191011</v>
+        <v>70448.191011000003</v>
       </c>
       <c r="AA20" s="1">
         <v>19.568942</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.366000</v>
+        <v>963.36599999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.950200</v>
+        <v>-76.950199999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>70458.330695</v>
+        <v>70458.330694999997</v>
       </c>
       <c r="AF20" s="1">
         <v>19.571759</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.285000</v>
+        <v>968.28499999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.758500</v>
+        <v>-74.758499999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>70468.866218</v>
+        <v>70468.866217999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.574685</v>
+        <v>19.574684999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.734000</v>
+        <v>975.73400000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.431400</v>
+        <v>-79.431399999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>70479.776714</v>
+        <v>70479.776714000007</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.577716</v>
+        <v>19.577715999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.869000</v>
+        <v>983.86900000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.895400</v>
+        <v>-90.895399999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>70490.773547</v>
+        <v>70490.773547000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.580770</v>
+        <v>19.580770000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.757000</v>
+        <v>993.75699999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>70501.817475</v>
+        <v>70501.817475000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>19.583838</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.987000</v>
+        <v>-123.98699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>70513.213356</v>
+        <v>70513.213355999993</v>
       </c>
       <c r="BE20" s="1">
         <v>19.587004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.710000</v>
+        <v>1040.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.561000</v>
+        <v>-195.56100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>70524.668655</v>
+        <v>70524.668655000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.590186</v>
+        <v>19.590185999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.174000</v>
+        <v>-311.17399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>70535.165986</v>
+        <v>70535.165986000007</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.593102</v>
+        <v>19.593101999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1217.280000</v>
+        <v>1217.28</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-491.736000</v>
+        <v>-491.73599999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>70546.632466</v>
+        <v>70546.632465999995</v>
       </c>
       <c r="BT20" s="1">
         <v>19.596287</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.730000</v>
+        <v>1339.73</v>
       </c>
       <c r="BV20" s="1">
-        <v>-688.353000</v>
+        <v>-688.35299999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>70557.569747</v>
+        <v>70557.569747000001</v>
       </c>
       <c r="BY20" s="1">
         <v>19.599325</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-896.787000</v>
+        <v>-896.78700000000003</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>70570.316434</v>
+        <v>70570.316433999993</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.602866</v>
+        <v>19.602865999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.640000</v>
+        <v>1826.64</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1390.150000</v>
+        <v>-1390.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>70396.721623</v>
+        <v>70396.721623000005</v>
       </c>
       <c r="B21" s="1">
-        <v>19.554645</v>
+        <v>19.554645000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>901.868000</v>
+        <v>901.86800000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.560000</v>
+        <v>-194.56</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>70406.851946</v>
+        <v>70406.851945999995</v>
       </c>
       <c r="G21" s="1">
-        <v>19.557459</v>
+        <v>19.557459000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>919.378000</v>
+        <v>919.37800000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.144000</v>
+        <v>-165.14400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>70417.464850</v>
+        <v>70417.464850000004</v>
       </c>
       <c r="L21" s="1">
-        <v>19.560407</v>
+        <v>19.560407000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.984000</v>
+        <v>941.98400000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.150000</v>
+        <v>-118.15</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>70427.878814</v>
+        <v>70427.878813999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.563300</v>
+        <v>19.563300000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>948.897000</v>
+        <v>948.89700000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.706000</v>
+        <v>-102.706</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>70437.984305</v>
+        <v>70437.984305000005</v>
       </c>
       <c r="V21" s="1">
-        <v>19.566107</v>
+        <v>19.566106999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.743000</v>
+        <v>955.74300000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.169900</v>
+        <v>-88.169899999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>70448.538709</v>
@@ -5439,1465 +5855,1466 @@
         <v>19.569039</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.405000</v>
+        <v>963.40499999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.892900</v>
+        <v>-76.892899999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>70458.758247</v>
+        <v>70458.758247000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.571877</v>
+        <v>19.571877000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.330000</v>
+        <v>968.33</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.783600</v>
+        <v>-74.783600000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>70469.297776</v>
+        <v>70469.297776000007</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.574805</v>
+        <v>19.574805000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.730000</v>
+        <v>975.73</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.433300</v>
+        <v>-79.433300000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>70480.072834</v>
+        <v>70480.072834000006</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.577798</v>
+        <v>19.577798000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.859000</v>
+        <v>983.85900000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.884900</v>
+        <v>-90.884900000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>70491.137581</v>
+        <v>70491.137581000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.580872</v>
+        <v>19.580871999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.738000</v>
+        <v>993.73800000000006</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.429000</v>
+        <v>-108.429</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>70502.175580</v>
+        <v>70502.175579999996</v>
       </c>
       <c r="AZ21" s="1">
         <v>19.583938</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.964000</v>
+        <v>-123.964</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>70513.575102</v>
+        <v>70513.575102000003</v>
       </c>
       <c r="BE21" s="1">
         <v>19.587104</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.544000</v>
+        <v>-195.54400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>70525.044622</v>
+        <v>70525.044622000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.590290</v>
+        <v>19.59029</v>
       </c>
       <c r="BK21" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.220000</v>
+        <v>-311.22000000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>70535.586099</v>
+        <v>70535.586098999993</v>
       </c>
       <c r="BO21" s="1">
         <v>19.593218</v>
       </c>
       <c r="BP21" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-491.709000</v>
+        <v>-491.709</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>70547.061506</v>
+        <v>70547.061505999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.596406</v>
+        <v>19.596406000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.720000</v>
+        <v>1339.72</v>
       </c>
       <c r="BV21" s="1">
-        <v>-688.251000</v>
+        <v>-688.25099999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>70558.003747</v>
+        <v>70558.003746999995</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.599445</v>
+        <v>19.599444999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.990000</v>
+        <v>1474.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-896.689000</v>
+        <v>-896.68899999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>70570.847187</v>
+        <v>70570.847187000007</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.603013</v>
+        <v>19.603013000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1826.740000</v>
+        <v>1826.74</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1389.000000</v>
+        <v>-1389</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>70397.091639</v>
+        <v>70397.091639000006</v>
       </c>
       <c r="B22" s="1">
         <v>19.554748</v>
       </c>
       <c r="C22" s="1">
-        <v>901.971000</v>
+        <v>901.971</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.613000</v>
+        <v>-194.613</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>70407.196633</v>
       </c>
       <c r="G22" s="1">
-        <v>19.557555</v>
+        <v>19.557555000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>919.340000</v>
+        <v>919.34</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.647000</v>
+        <v>-165.64699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>70417.686028</v>
+        <v>70417.686027999996</v>
       </c>
       <c r="L22" s="1">
         <v>19.560468</v>
       </c>
       <c r="M22" s="1">
-        <v>941.975000</v>
+        <v>941.97500000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.371000</v>
+        <v>-118.371</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>70428.226014</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.563396</v>
+        <v>19.563396000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.933000</v>
+        <v>948.93299999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.643000</v>
+        <v>-102.643</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>70438.399457</v>
+        <v>70438.399457000007</v>
       </c>
       <c r="V22" s="1">
         <v>19.566222</v>
       </c>
       <c r="W22" s="1">
-        <v>955.827000</v>
+        <v>955.827</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.134300</v>
+        <v>-88.134299999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>70448.955315</v>
+        <v>70448.955314999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.569154</v>
+        <v>19.569154000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.344000</v>
+        <v>963.34400000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.926000</v>
+        <v>-76.926000000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>70459.035014</v>
+        <v>70459.035013999994</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.571954</v>
+        <v>19.571954000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.356000</v>
+        <v>968.35599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.779100</v>
+        <v>-74.7791</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>70469.568055</v>
+        <v>70469.568054999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.574880</v>
+        <v>19.57488</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.744000</v>
+        <v>975.74400000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.472600</v>
+        <v>-79.4726</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>70480.433946</v>
+        <v>70480.433946000005</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.577898</v>
+        <v>19.577898000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.864000</v>
+        <v>983.86400000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.894000</v>
+        <v>-90.894000000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>70491.502140</v>
+        <v>70491.502139999997</v>
       </c>
       <c r="AU22" s="1">
         <v>19.580973</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.714000</v>
+        <v>993.71400000000006</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>70502.534652</v>
+        <v>70502.534652000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.584037</v>
+        <v>19.584036999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.961000</v>
+        <v>-123.961</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>70514.297773</v>
+        <v>70514.297772999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.587305</v>
+        <v>19.587305000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.730000</v>
+        <v>1040.73</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.552000</v>
+        <v>-195.55199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>70525.793549</v>
+        <v>70525.793548999995</v>
       </c>
       <c r="BJ22" s="1">
         <v>19.590498</v>
       </c>
       <c r="BK22" s="1">
-        <v>1107.980000</v>
+        <v>1107.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.183000</v>
+        <v>-311.18299999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>70535.986833</v>
+        <v>70535.986833000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.593330</v>
+        <v>19.593330000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1217.240000</v>
+        <v>1217.24</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-491.755000</v>
+        <v>-491.755</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>70547.476167</v>
+        <v>70547.476167000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.596521</v>
+        <v>19.596520999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.690000</v>
+        <v>1339.69</v>
       </c>
       <c r="BV22" s="1">
-        <v>-688.237000</v>
+        <v>-688.23699999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>70558.423394</v>
+        <v>70558.423393999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.599562</v>
+        <v>19.599561999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.990000</v>
+        <v>1474.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-896.701000</v>
+        <v>-896.70100000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>70571.675473</v>
+        <v>70571.675472999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.603243</v>
+        <v>19.603242999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.440000</v>
+        <v>1825.44</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1389.190000</v>
+        <v>-1389.19</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>70397.434374</v>
+        <v>70397.434374000004</v>
       </c>
       <c r="B23" s="1">
-        <v>19.554843</v>
+        <v>19.554843000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>901.925000</v>
+        <v>901.92499999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.670000</v>
+        <v>-194.67</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>70407.542841</v>
+        <v>70407.542841000002</v>
       </c>
       <c r="G23" s="1">
         <v>19.557651</v>
       </c>
       <c r="H23" s="1">
-        <v>919.068000</v>
+        <v>919.06799999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.805000</v>
+        <v>-164.80500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>70418.144369</v>
+        <v>70418.144369000001</v>
       </c>
       <c r="L23" s="1">
         <v>19.560596</v>
       </c>
       <c r="M23" s="1">
-        <v>941.995000</v>
+        <v>941.995</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.474000</v>
+        <v>-118.474</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>70428.659552</v>
+        <v>70428.659551999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.563517</v>
+        <v>19.563517000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.952000</v>
+        <v>948.952</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>70438.680192</v>
       </c>
       <c r="V23" s="1">
-        <v>19.566300</v>
+        <v>19.566299999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>955.822000</v>
+        <v>955.822</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.152700</v>
+        <v>-88.152699999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>70449.248451</v>
+        <v>70449.248451000007</v>
       </c>
       <c r="AA23" s="1">
         <v>19.569236</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.402000</v>
+        <v>963.40200000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.941900</v>
+        <v>-76.941900000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>70459.377254</v>
+        <v>70459.377254000006</v>
       </c>
       <c r="AF23" s="1">
         <v>19.572049</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.333000</v>
+        <v>968.33299999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.783200</v>
+        <v>-74.783199999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>70469.918231</v>
+        <v>70469.918231000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.574977</v>
+        <v>19.574977000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.711000</v>
+        <v>975.71100000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.439600</v>
+        <v>-79.439599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>70480.794504</v>
+        <v>70480.794504000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.577998</v>
+        <v>19.577998000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.872000</v>
+        <v>983.87199999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.869800</v>
+        <v>-90.869799999999998</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>70492.235753</v>
+        <v>70492.235753000001</v>
       </c>
       <c r="AU23" s="1">
         <v>19.581177</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.732000</v>
+        <v>993.73199999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.411000</v>
+        <v>-108.411</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>70503.256828</v>
+        <v>70503.256827999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.584238</v>
+        <v>19.584237999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.974000</v>
+        <v>-123.974</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>70514.680717</v>
+        <v>70514.680716999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.587411</v>
+        <v>19.587410999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.730000</v>
+        <v>1040.73</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.542000</v>
+        <v>-195.542</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>70526.169053</v>
+        <v>70526.169053000005</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.590603</v>
+        <v>19.590603000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1107.990000</v>
+        <v>1107.99</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.191000</v>
+        <v>-311.19099999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>70536.404500</v>
+        <v>70536.404500000004</v>
       </c>
       <c r="BO23" s="1">
         <v>19.593446</v>
       </c>
       <c r="BP23" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-491.774000</v>
+        <v>-491.774</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>70548.217183</v>
+        <v>70548.217183000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.596727</v>
+        <v>19.596727000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.610000</v>
+        <v>1339.61</v>
       </c>
       <c r="BV23" s="1">
-        <v>-688.106000</v>
+        <v>-688.10599999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>70559.171825</v>
+        <v>70559.171824999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.599770</v>
+        <v>19.599769999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.910000</v>
+        <v>1474.91</v>
       </c>
       <c r="CA23" s="1">
-        <v>-896.694000</v>
+        <v>-896.69399999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>70571.883327</v>
+        <v>70571.883327000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.603301</v>
+        <v>19.603300999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1825.780000</v>
+        <v>1825.78</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1390.620000</v>
+        <v>-1390.62</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>70397.775127</v>
+        <v>70397.775127000001</v>
       </c>
       <c r="B24" s="1">
         <v>19.554938</v>
       </c>
       <c r="C24" s="1">
-        <v>902.002000</v>
+        <v>902.00199999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.566000</v>
+        <v>-194.566</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>70407.962953</v>
+        <v>70407.962952999995</v>
       </c>
       <c r="G24" s="1">
-        <v>19.557767</v>
+        <v>19.557766999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>919.048000</v>
+        <v>919.048</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.460000</v>
+        <v>-165.46</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>70418.396300</v>
+        <v>70418.396299999993</v>
       </c>
       <c r="L24" s="1">
-        <v>19.560666</v>
+        <v>19.560666000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.035000</v>
+        <v>942.03499999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.258000</v>
+        <v>-118.258</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>70428.928349</v>
+        <v>70428.928348999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.563591</v>
+        <v>19.563590999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.945000</v>
+        <v>948.94500000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.633000</v>
+        <v>-102.633</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>70439.021441</v>
+        <v>70439.021441000004</v>
       </c>
       <c r="V24" s="1">
         <v>19.566395</v>
       </c>
       <c r="W24" s="1">
-        <v>955.759000</v>
+        <v>955.75900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.122700</v>
+        <v>-88.122699999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>70449.596147</v>
+        <v>70449.596147000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.569332</v>
+        <v>19.569331999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.368000</v>
+        <v>963.36800000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.917100</v>
+        <v>-76.917100000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>70459.722468</v>
+        <v>70459.722468000007</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.572145</v>
+        <v>19.572144999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.333000</v>
+        <v>968.33299999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.798300</v>
+        <v>-74.798299999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>70470.267415</v>
+        <v>70470.267414999995</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.575074</v>
+        <v>19.575074000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.739000</v>
+        <v>975.73900000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.446700</v>
+        <v>-79.446700000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>70481.522135</v>
+        <v>70481.522135000007</v>
       </c>
       <c r="AP24" s="1">
         <v>19.578201</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.867000</v>
+        <v>983.86699999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.878600</v>
+        <v>-90.878600000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>70492.627066</v>
+        <v>70492.627066000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.581285</v>
+        <v>19.581285000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.737000</v>
+        <v>993.73699999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.433000</v>
+        <v>-108.43300000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>70503.632826</v>
+        <v>70503.632826000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.584342</v>
+        <v>19.584341999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.960000</v>
+        <v>-123.96</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>70515.046594</v>
+        <v>70515.046593999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.587513</v>
+        <v>19.587513000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.730000</v>
+        <v>1040.73</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.556000</v>
+        <v>-195.55600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>70526.844572</v>
+        <v>70526.844572000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.590790</v>
+        <v>19.590789999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.000000</v>
+        <v>1108</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.199000</v>
+        <v>-311.19900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>70537.114734</v>
+        <v>70537.114734000002</v>
       </c>
       <c r="BO24" s="1">
         <v>19.593643</v>
       </c>
       <c r="BP24" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-491.740000</v>
+        <v>-491.74</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>70548.330799</v>
+        <v>70548.330799000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.596759</v>
+        <v>19.596758999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.600000</v>
+        <v>1339.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-688.062000</v>
+        <v>-688.06200000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>70559.290401</v>
+        <v>70559.290401000006</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.599803</v>
+        <v>19.599803000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.920000</v>
+        <v>1474.92</v>
       </c>
       <c r="CA24" s="1">
-        <v>-896.715000</v>
+        <v>-896.71500000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>70572.397152</v>
+        <v>70572.397152000005</v>
       </c>
       <c r="CD24" s="1">
         <v>19.603444</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.670000</v>
+        <v>1825.67</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1390.370000</v>
+        <v>-1390.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>70398.197221</v>
+        <v>70398.197220999995</v>
       </c>
       <c r="B25" s="1">
-        <v>19.555055</v>
+        <v>19.555054999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>901.897000</v>
+        <v>901.89700000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.516000</v>
+        <v>-194.51599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>70408.239473</v>
+        <v>70408.239472999994</v>
       </c>
       <c r="G25" s="1">
-        <v>19.557844</v>
+        <v>19.557843999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>918.965000</v>
+        <v>918.96500000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.198000</v>
+        <v>-165.19800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>70418.743498</v>
+        <v>70418.743497999996</v>
       </c>
       <c r="L25" s="1">
         <v>19.560762</v>
       </c>
       <c r="M25" s="1">
-        <v>942.029000</v>
+        <v>942.029</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.218000</v>
+        <v>-118.218</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>70429.274061</v>
+        <v>70429.274061000004</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.563687</v>
+        <v>19.563687000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>948.943000</v>
+        <v>948.94299999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.653000</v>
+        <v>-102.65300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>70439.366663</v>
+        <v>70439.366662999993</v>
       </c>
       <c r="V25" s="1">
-        <v>19.566491</v>
+        <v>19.566490999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>955.807000</v>
+        <v>955.80700000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.217000</v>
+        <v>-88.216999999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>70449.941361</v>
+        <v>70449.941361000005</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.569428</v>
+        <v>19.569427999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.346000</v>
+        <v>963.346</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.928500</v>
+        <v>-76.9285</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>70460.404963</v>
+        <v>70460.404962999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.572335</v>
+        <v>19.572334999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.330000</v>
+        <v>968.33</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.820800</v>
+        <v>-74.820800000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>70470.972725</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.575270</v>
+        <v>19.57527</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.727000</v>
+        <v>975.72699999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.462000</v>
+        <v>-79.462000000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>70481.899095</v>
+        <v>70481.899095000001</v>
       </c>
       <c r="AP25" s="1">
         <v>19.578305</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.900000</v>
+        <v>983.9</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.883100</v>
+        <v>-90.883099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>70492.992149</v>
+        <v>70492.992148999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.581387</v>
+        <v>19.581386999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.744000</v>
+        <v>993.74400000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.417000</v>
+        <v>-108.417</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>70504.008796</v>
+        <v>70504.008795999995</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.584447</v>
+        <v>19.584447000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.982000</v>
+        <v>-123.982</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>70515.714850</v>
+        <v>70515.714850000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.587699</v>
+        <v>19.587699000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.720000</v>
+        <v>1040.72</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.571000</v>
+        <v>-195.571</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>70526.950220</v>
+        <v>70526.950219999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.590820</v>
+        <v>19.590820000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1107.970000</v>
+        <v>1107.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.194000</v>
+        <v>-311.19400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>70537.241711</v>
+        <v>70537.241710999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.593678</v>
+        <v>19.593678000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-491.751000</v>
+        <v>-491.75099999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>70548.773200</v>
+        <v>70548.773199999996</v>
       </c>
       <c r="BT25" s="1">
         <v>19.596881</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.550000</v>
+        <v>1339.55</v>
       </c>
       <c r="BV25" s="1">
-        <v>-687.985000</v>
+        <v>-687.98500000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>70559.719904</v>
+        <v>70559.719903999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.599922</v>
+        <v>19.599921999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.890000</v>
+        <v>1474.89</v>
       </c>
       <c r="CA25" s="1">
-        <v>-896.800000</v>
+        <v>-896.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>70572.951711</v>
+        <v>70572.951711000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.603598</v>
+        <v>19.603598000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.330000</v>
+        <v>1825.33</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1389.860000</v>
+        <v>-1389.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>70398.474520</v>
+        <v>70398.474520000003</v>
       </c>
       <c r="B26" s="1">
         <v>19.555132</v>
       </c>
       <c r="C26" s="1">
-        <v>901.939000</v>
+        <v>901.93899999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.587000</v>
+        <v>-194.58699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>70408.582488</v>
       </c>
       <c r="G26" s="1">
-        <v>19.557940</v>
+        <v>19.557939999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>919.249000</v>
+        <v>919.24900000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.113000</v>
+        <v>-165.113</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>70419.086234</v>
+        <v>70419.086234000002</v>
       </c>
       <c r="L26" s="1">
-        <v>19.560857</v>
+        <v>19.560856999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.051000</v>
+        <v>942.05100000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.300000</v>
+        <v>-118.3</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>70429.627746</v>
+        <v>70429.627745999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.563785</v>
+        <v>19.563784999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.950000</v>
+        <v>948.95</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.686000</v>
+        <v>-102.68600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>70440.053271</v>
+        <v>70440.053270999997</v>
       </c>
       <c r="V26" s="1">
-        <v>19.566681</v>
+        <v>19.566680999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.864000</v>
+        <v>955.86400000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.163300</v>
+        <v>-88.163300000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>70450.641713</v>
+        <v>70450.641713000005</v>
       </c>
       <c r="AA26" s="1">
         <v>19.569623</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.386000</v>
+        <v>963.38599999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.960600</v>
+        <v>-76.960599999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>70460.753187</v>
+        <v>70460.753186999995</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.572431</v>
+        <v>19.572431000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.334000</v>
+        <v>968.33399999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.784100</v>
+        <v>-74.784099999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>70471.311493</v>
+        <v>70471.311493000001</v>
       </c>
       <c r="AK26" s="1">
         <v>19.575364</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.730000</v>
+        <v>975.73</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.437500</v>
+        <v>-79.4375</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>70482.258200</v>
+        <v>70482.258199999997</v>
       </c>
       <c r="AP26" s="1">
         <v>19.578405</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.904000</v>
+        <v>983.904</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.899100</v>
+        <v>-90.899100000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>70493.671656</v>
+        <v>70493.671656000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.581575</v>
+        <v>19.581575000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.730000</v>
+        <v>993.73</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.417000</v>
+        <v>-108.417</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>70504.675913</v>
+        <v>70504.675912999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.584632</v>
+        <v>19.584631999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.969000</v>
+        <v>-123.96899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>70516.162732</v>
+        <v>70516.162731999997</v>
       </c>
       <c r="BE26" s="1">
         <v>19.587823</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.700000</v>
+        <v>1040.7</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.547000</v>
+        <v>-195.547</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>70527.326715</v>
+        <v>70527.326715000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.590924</v>
+        <v>19.590924000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1107.980000</v>
+        <v>1107.98</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.182000</v>
+        <v>-311.18200000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>70537.647943</v>
+        <v>70537.647943000004</v>
       </c>
       <c r="BO26" s="1">
         <v>19.593791</v>
       </c>
       <c r="BP26" s="1">
-        <v>1217.250000</v>
+        <v>1217.25</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-491.770000</v>
+        <v>-491.77</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>70549.184878</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.596996</v>
+        <v>19.596996000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.470000</v>
+        <v>1339.47</v>
       </c>
       <c r="BV26" s="1">
-        <v>-688.012000</v>
+        <v>-688.01199999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>70560.149440</v>
+        <v>70560.149439999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.600042</v>
+        <v>19.600041999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.040000</v>
+        <v>1475.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-896.640000</v>
+        <v>-896.64</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>70573.480910</v>
+        <v>70573.480909999998</v>
       </c>
       <c r="CD26" s="1">
         <v>19.603745</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.250000</v>
+        <v>1826.25</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1390.760000</v>
+        <v>-1390.76</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>